--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.696372</v>
+        <v>0.3518616666666667</v>
       </c>
       <c r="H2">
-        <v>5.089116000000001</v>
+        <v>1.055585</v>
       </c>
       <c r="I2">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396739</v>
       </c>
       <c r="J2">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396738</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N2">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P2">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q2">
-        <v>40.02796804475467</v>
+        <v>9.922319081401112</v>
       </c>
       <c r="R2">
-        <v>360.2517124027921</v>
+        <v>89.30087173261001</v>
       </c>
       <c r="S2">
-        <v>0.6133640303320663</v>
+        <v>0.4383595898252177</v>
       </c>
       <c r="T2">
-        <v>0.6133640303320663</v>
+        <v>0.4383595898252176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.696372</v>
+        <v>0.3518616666666667</v>
       </c>
       <c r="H3">
-        <v>5.089116000000001</v>
+        <v>1.055585</v>
       </c>
       <c r="I3">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396739</v>
       </c>
       <c r="J3">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396738</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P3">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q3">
-        <v>13.19442495621467</v>
+        <v>2.736789074449445</v>
       </c>
       <c r="R3">
-        <v>118.749824605932</v>
+        <v>24.631101670045</v>
       </c>
       <c r="S3">
-        <v>0.2021832749543814</v>
+        <v>0.1209090058757099</v>
       </c>
       <c r="T3">
-        <v>0.2021832749543814</v>
+        <v>0.1209090058757099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.696372</v>
+        <v>0.3518616666666667</v>
       </c>
       <c r="H4">
-        <v>5.089116000000001</v>
+        <v>1.055585</v>
       </c>
       <c r="I4">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396739</v>
       </c>
       <c r="J4">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396738</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P4">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q4">
-        <v>3.987157272458667</v>
+        <v>0.8270165996311113</v>
       </c>
       <c r="R4">
-        <v>35.884415452128</v>
+        <v>7.443149396680001</v>
       </c>
       <c r="S4">
-        <v>0.06109675243741304</v>
+        <v>0.03653688763874625</v>
       </c>
       <c r="T4">
-        <v>0.06109675243741305</v>
+        <v>0.03653688763874623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>0.238703</v>
       </c>
       <c r="H5">
-        <v>0.7161090000000001</v>
+        <v>0.716109</v>
       </c>
       <c r="I5">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="J5">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.59622066666667</v>
+        <v>28.19948866666667</v>
       </c>
       <c r="N5">
-        <v>70.788662</v>
+        <v>84.598466</v>
       </c>
       <c r="O5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402423</v>
       </c>
       <c r="P5">
-        <v>0.6996728317814862</v>
+        <v>0.7357427920402422</v>
       </c>
       <c r="Q5">
-        <v>5.632488661795334</v>
+        <v>6.731302543199334</v>
       </c>
       <c r="R5">
-        <v>50.69239795615801</v>
+        <v>60.581722888794</v>
       </c>
       <c r="S5">
-        <v>0.08630880144941984</v>
+        <v>0.2973832022150247</v>
       </c>
       <c r="T5">
-        <v>0.08630880144941984</v>
+        <v>0.2973832022150246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>0.238703</v>
       </c>
       <c r="H6">
-        <v>0.7161090000000001</v>
+        <v>0.716109</v>
       </c>
       <c r="I6">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="J6">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395279</v>
       </c>
       <c r="P6">
-        <v>0.2306332577891816</v>
+        <v>0.2029336910395278</v>
       </c>
       <c r="Q6">
-        <v>1.856638060710334</v>
+        <v>1.856638060710333</v>
       </c>
       <c r="R6">
         <v>16.709742546393</v>
       </c>
       <c r="S6">
-        <v>0.02844998283480021</v>
+        <v>0.08202468516381795</v>
       </c>
       <c r="T6">
-        <v>0.02844998283480021</v>
+        <v>0.08202468516381792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>0.238703</v>
       </c>
       <c r="H7">
-        <v>0.7161090000000001</v>
+        <v>0.716109</v>
       </c>
       <c r="I7">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="J7">
-        <v>0.1233559422761392</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.350402666666666</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>7.051207999999999</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.06969391042933215</v>
+        <v>0.0613235169202299</v>
       </c>
       <c r="P7">
-        <v>0.06969391042933216</v>
+        <v>0.06132351692022989</v>
       </c>
       <c r="Q7">
-        <v>0.5610481677413333</v>
+        <v>0.5610481677413335</v>
       </c>
       <c r="R7">
         <v>5.049433509672</v>
       </c>
       <c r="S7">
-        <v>0.00859715799191911</v>
+        <v>0.02478662928148366</v>
       </c>
       <c r="T7">
-        <v>0.008597157991919112</v>
+        <v>0.02478662928148365</v>
       </c>
     </row>
   </sheetData>
